--- a/docs/Descriptives.xlsx
+++ b/docs/Descriptives.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,7 +557,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Genotype_corr:</t>
+          <t>Age:</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -609,47 +609,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    WT</t>
+          <t xml:space="preserve">    10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  13 (59.1%)  </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  66 (35.5%)  </t>
+          <t xml:space="preserve">  65 (34.9%)  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93 (56.7%)  </t>
+          <t xml:space="preserve">  35 (21.3%)  </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  51 (47.7%)  </t>
+          <t xml:space="preserve">  26 (24.3%)  </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  44 (44.4%)  </t>
+          <t xml:space="preserve">  32 (32.3%)  </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (57.7%)  </t>
+          <t xml:space="preserve">  6 (23.1%)   </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (47.8%)  </t>
+          <t xml:space="preserve">  12 (52.2%)  </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
+          <t xml:space="preserve">  9 (40.9%)   </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -661,32 +661,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    APPPS1+</t>
+          <t xml:space="preserve">    17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (86.4%)  </t>
+          <t xml:space="preserve">  1 (4.55%)   </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 120 (64.5%)  </t>
+          <t xml:space="preserve">  19 (10.2%)  </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  71 (43.3%)  </t>
+          <t xml:space="preserve">  68 (41.5%)  </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (52.3%)  </t>
+          <t xml:space="preserve">  31 (29.0%)  </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  55 (55.6%)  </t>
+          <t xml:space="preserve">  29 (29.3%)  </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">  3 (13.0%)   </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (72.7%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -713,141 +713,141 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Treatment:</t>
+          <t xml:space="preserve">    9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  8 (36.4%)   </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 102 (54.8%)  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  61 (37.2%)  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  50 (46.7%)  </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  38 (38.4%)  </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  9 (34.6%)   </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  8 (34.8%)   </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  13 (59.1%)  </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Ctrl</t>
+          <t>Genotype_corr:</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101 (54.3%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 (68.9%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (65.4%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68 (68.7%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (80.8%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Stroke</t>
+          <t xml:space="preserve">    WT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (86.4%)  </t>
+          <t xml:space="preserve">  3 (13.6%)   </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85 (45.7%)  </t>
+          <t xml:space="preserve">  66 (35.5%)  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  51 (31.1%)  </t>
+          <t xml:space="preserve">  93 (56.7%)  </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  37 (34.6%)  </t>
+          <t xml:space="preserve">  51 (47.7%)  </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (31.3%)  </t>
+          <t xml:space="preserve">  44 (44.4%)  </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">  15 (57.7%)  </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20 (90.9%)  </t>
+          <t xml:space="preserve">  6 (27.3%)   </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -869,151 +869,151 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phase:</t>
+          <t xml:space="preserve">    APPPS1+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  19 (86.4%)  </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 120 (64.5%)  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  71 (43.3%)  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  56 (52.3%)  </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  55 (55.6%)  </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  11 (42.3%)  </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  12 (52.2%)  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  16 (72.7%)  </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.002  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">    G1</t>
+          <t>Treatment:</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  79 (42.5%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (42.7%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  59 (55.1%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  42 (42.4%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (46.2%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (60.9%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (22.7%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">    G2M</t>
+          <t xml:space="preserve">    Ctrl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (50.0%)  </t>
+          <t xml:space="preserve">  3 (13.6%)   </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  50 (26.9%)  </t>
+          <t xml:space="preserve"> 101 (54.3%)  </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  38 (23.2%)  </t>
+          <t xml:space="preserve"> 113 (68.9%)  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (15.9%)  </t>
+          <t xml:space="preserve">  70 (65.4%)  </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (21.2%)  </t>
+          <t xml:space="preserve">  68 (68.7%)  </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (23.1%)   </t>
+          <t xml:space="preserve">  21 (80.8%)  </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (17.4%)   </t>
+          <t xml:space="preserve">  12 (52.2%)  </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (50.0%)  </t>
+          <t xml:space="preserve">  2 (9.09%)   </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1025,47 +1025,47 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    S</t>
+          <t xml:space="preserve">    Stroke</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (45.5%)  </t>
+          <t xml:space="preserve">  19 (86.4%)  </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  57 (30.6%)  </t>
+          <t xml:space="preserve">  85 (45.7%)  </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (34.1%)  </t>
+          <t xml:space="preserve">  51 (31.1%)  </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (29.0%)  </t>
+          <t xml:space="preserve">  37 (34.6%)  </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  36 (36.4%)  </t>
+          <t xml:space="preserve">  31 (31.3%)  </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (30.8%)   </t>
+          <t xml:space="preserve">  5 (19.2%)   </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (21.7%)   </t>
+          <t xml:space="preserve">  11 (47.8%)  </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
+          <t xml:space="preserve">  20 (90.9%)  </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>condition:</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1122,49 +1122,49 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t xml:space="preserve">    APPPS1+_Ctrl</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  2 (9.09%)   </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101 (54.3%)  </t>
+          <t xml:space="preserve">  82 (44.1%)  </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 (68.9%)  </t>
+          <t xml:space="preserve">  45 (27.4%)  </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (65.4%)  </t>
+          <t xml:space="preserve">  39 (36.4%)  </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68 (68.7%)  </t>
+          <t xml:space="preserve">  39 (39.4%)  </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (80.8%)  </t>
+          <t xml:space="preserve">  10 (38.5%)  </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">  9 (39.1%)   </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1181,47 +1181,47 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t xml:space="preserve">    APPPS1+_Stroke</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (86.4%)  </t>
+          <t xml:space="preserve">  17 (77.3%)  </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85 (45.7%)  </t>
+          <t xml:space="preserve">  38 (20.4%)  </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  51 (31.1%)  </t>
+          <t xml:space="preserve">  26 (15.9%)  </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  37 (34.6%)  </t>
+          <t xml:space="preserve">  17 (15.9%)  </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (31.3%)  </t>
+          <t xml:space="preserve">  16 (16.2%)  </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">  1 (3.85%)   </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (47.8%)  </t>
+          <t xml:space="preserve">  3 (13.0%)   </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20 (90.9%)  </t>
+          <t xml:space="preserve">  14 (63.6%)  </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1233,307 +1233,307 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t xml:space="preserve">    WT_Ctrl</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>164049 (80916)</t>
+          <t xml:space="preserve">  1 (4.55%)   </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>150451 (78955)</t>
+          <t xml:space="preserve">  19 (10.2%)  </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>134224 (54802)</t>
+          <t xml:space="preserve">  68 (41.5%)  </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>170420 (76702)</t>
+          <t xml:space="preserve">  31 (29.0%)  </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>152640 (72678)</t>
+          <t xml:space="preserve">  29 (29.3%)  </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>172200 (70772)</t>
+          <t xml:space="preserve">  11 (42.3%)  </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>176087 (64299)</t>
+          <t xml:space="preserve">  3 (13.0%)   </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>144828 (65899)</t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.002  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t xml:space="preserve">    WT_Stroke</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>165078 (81748)</t>
+          <t xml:space="preserve">  2 (9.09%)   </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>150942 (78850)</t>
+          <t xml:space="preserve">  47 (25.3%)  </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>134355 (54810)</t>
+          <t xml:space="preserve">  25 (15.2%)  </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>170750 (76639)</t>
+          <t xml:space="preserve">  20 (18.7%)  </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>152790 (72668)</t>
+          <t xml:space="preserve">  15 (15.2%)  </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>172433 (70717)</t>
+          <t xml:space="preserve">  4 (15.4%)   </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>176390 (64225)</t>
+          <t xml:space="preserve">  8 (34.8%)   </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>145316 (65972)</t>
+          <t xml:space="preserve">  6 (27.3%)   </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.002  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>percent.mito</t>
+          <t>Phase:</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.23 (0.90)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.75 (1.17)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.62 (1.01)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.07 (1.07)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.72 (1.15)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.97 (1.02)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.11 (0.77)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.92 (1.00)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.002  </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>percent.ribo</t>
+          <t xml:space="preserve">    G1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.53 (2.72)  </t>
+          <t xml:space="preserve">  1 (4.55%)   </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.68 (1.58)  </t>
+          <t xml:space="preserve">  79 (42.5%)  </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.75 (1.81)  </t>
+          <t xml:space="preserve">  70 (42.7%)  </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.44 (1.24)  </t>
+          <t xml:space="preserve">  59 (55.1%)  </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.28 (1.67)  </t>
+          <t xml:space="preserve">  42 (42.4%)  </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.11 (0.85)  </t>
+          <t xml:space="preserve">  12 (46.2%)  </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.91 (1.35)  </t>
+          <t xml:space="preserve">  14 (60.9%)  </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.01 (1.17)  </t>
+          <t xml:space="preserve">  5 (22.7%)   </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t xml:space="preserve">    G2M</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  11 (50.0%)  </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  50 (26.9%)  </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  38 (23.2%)  </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  17 (15.9%)  </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  21 (21.2%)  </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  6 (23.1%)   </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  4 (17.4%)   </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  11 (50.0%)  </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15773</t>
+          <t xml:space="preserve">    S</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  10 (45.5%)  </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7 (3.76%)   </t>
+          <t xml:space="preserve">  57 (30.6%)  </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  25 (15.2%)  </t>
+          <t xml:space="preserve">  56 (34.1%)  </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (11.2%)  </t>
+          <t xml:space="preserve">  31 (29.0%)  </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (17.2%)  </t>
+          <t xml:space="preserve">  36 (36.4%)  </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (15.4%)   </t>
+          <t xml:space="preserve">  8 (30.8%)   </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">  5 (21.7%)   </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  6 (27.3%)   </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1545,99 +1545,99 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15774</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (0.54%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  30 (18.3%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (9.35%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (6.06%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15792</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  3 (13.6%)   </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (5.91%)  </t>
+          <t xml:space="preserve"> 101 (54.3%)  </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (7.93%)  </t>
+          <t xml:space="preserve"> 113 (68.9%)  </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (8.41%)   </t>
+          <t xml:space="preserve">  70 (65.4%)  </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (6.06%)   </t>
+          <t xml:space="preserve">  68 (68.7%)  </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (23.1%)   </t>
+          <t xml:space="preserve">  21 (80.8%)  </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">  12 (52.2%)  </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  2 (9.09%)   </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1649,47 +1649,47 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  19 (86.4%)  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (7.53%)  </t>
+          <t xml:space="preserve">  85 (45.7%)  </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (5.49%)   </t>
+          <t xml:space="preserve">  51 (31.1%)  </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (1.87%)   </t>
+          <t xml:space="preserve">  37 (34.6%)  </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (6.06%)   </t>
+          <t xml:space="preserve">  31 (31.3%)  </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">  5 (19.2%)   </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (21.7%)   </t>
+          <t xml:space="preserve">  11 (47.8%)  </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  20 (90.9%)  </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1701,258 +1701,726 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (50.0%)  </t>
+          <t>164049 (80916)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (5.38%)  </t>
+          <t>150451 (78955)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (3.05%)   </t>
+          <t>134224 (54802)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (5.61%)   </t>
+          <t>170420 (76702)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (5.05%)   </t>
+          <t>152640 (72678)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t>172200 (70772)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t>176087 (64299)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
+          <t>144828 (65899)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.002  </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t>165078 (81748)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (22.0%)  </t>
+          <t>150942 (78850)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (12.8%)  </t>
+          <t>134355 (54810)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (16.8%)  </t>
+          <t>170750 (76639)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (21.2%)  </t>
+          <t>152790 (72668)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t>172433 (70717)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (26.1%)   </t>
+          <t>176390 (64225)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t>145316 (65972)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.002  </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">    409</t>
+          <t>percent.mito</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve"> 2.23 (0.90)  </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  33 (17.7%)  </t>
+          <t xml:space="preserve"> 1.75 (1.17)  </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (9.76%)  </t>
+          <t xml:space="preserve"> 1.62 (1.01)  </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (16.8%)  </t>
+          <t xml:space="preserve"> 2.07 (1.07)  </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (9.09%)   </t>
+          <t xml:space="preserve"> 1.72 (1.15)  </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (11.5%)   </t>
+          <t xml:space="preserve"> 1.97 (1.02)  </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve"> 2.11 (0.77)  </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve"> 0.92 (1.00)  </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">    457</t>
+          <t>percent.ribo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve"> 6.53 (2.72)  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (22.0%)  </t>
+          <t xml:space="preserve"> 2.68 (1.58)  </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  24 (14.6%)  </t>
+          <t xml:space="preserve"> 2.75 (1.81)  </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (19.6%)  </t>
+          <t xml:space="preserve"> 2.44 (1.24)  </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (18.2%)  </t>
+          <t xml:space="preserve"> 3.28 (1.67)  </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve"> 2.11 (0.85)  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve"> 2.91 (1.35)  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
+          <t xml:space="preserve"> 2.01 (1.17)  </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Mouse_ID:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              </t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    .    </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    23#15773</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  7 (3.76%)   </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  25 (15.2%)  </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  12 (11.2%)  </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  17 (17.2%)  </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4 (15.4%)   </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.35%)   </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    23#15774</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (0.54%)   </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  30 (18.3%)  </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  10 (9.35%)  </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 (6.06%)   </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (3.85%)   </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.35%)   </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    23#15792</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.55%)   </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  11 (5.91%)  </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  13 (7.93%)  </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  9 (8.41%)   </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 (6.06%)   </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 (23.1%)   </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.35%)   </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    386</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.55%)   </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  14 (7.53%)  </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  9 (5.49%)   </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2 (1.87%)   </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 (6.06%)   </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (3.85%)   </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5 (21.7%)   </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (13.6%)   </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    387</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  11 (50.0%)  </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  10 (5.38%)  </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5 (3.05%)   </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 (5.61%)   </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5 (5.05%)   </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.35%)   </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 (27.3%)   </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    388</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.55%)   </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  41 (22.0%)  </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  21 (12.8%)  </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  18 (16.8%)  </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  21 (21.2%)  </t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5 (19.2%)   </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  6 (26.1%)   </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    409</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.55%)   </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  33 (17.7%)  </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  16 (9.76%)  </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  18 (16.8%)  </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  9 (9.09%)   </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (11.5%)   </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (13.0%)   </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (13.6%)   </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    457</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.55%)   </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  41 (22.0%)  </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  24 (14.6%)  </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  21 (19.6%)  </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  18 (18.2%)  </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5 (19.2%)   </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (13.0%)   </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2 (9.09%)   </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t xml:space="preserve">    461</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">  6 (27.3%)   </t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">  28 (15.1%)  </t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">  21 (12.8%)  </t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">  11 (10.3%)  </t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve">  11 (11.1%)  </t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t xml:space="preserve">  1 (3.85%)   </t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">  2 (8.70%)   </t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t xml:space="preserve">  8 (36.4%)   </t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>

--- a/docs/Descriptives.xlsx
+++ b/docs/Descriptives.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1545,47 +1545,47 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>Pseudotime</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 12.9 (1.50)  </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 4.23 (1.73)  </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 8.66 (2.14)  </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 1.17 (1.76)  </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 16.9 (0.61)  </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1597,99 +1597,99 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101 (54.3%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 (68.9%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (65.4%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68 (68.7%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (80.8%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (86.4%)  </t>
+          <t xml:space="preserve">  3 (13.6%)   </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85 (45.7%)  </t>
+          <t xml:space="preserve"> 101 (54.3%)  </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  51 (31.1%)  </t>
+          <t xml:space="preserve"> 113 (68.9%)  </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  37 (34.6%)  </t>
+          <t xml:space="preserve">  70 (65.4%)  </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (31.3%)  </t>
+          <t xml:space="preserve">  68 (68.7%)  </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">  21 (80.8%)  </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (47.8%)  </t>
+          <t xml:space="preserve">  12 (52.2%)  </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20 (90.9%)  </t>
+          <t xml:space="preserve">  2 (9.09%)   </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1701,99 +1701,99 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>164049 (80916)</t>
+          <t xml:space="preserve">  19 (86.4%)  </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>150451 (78955)</t>
+          <t xml:space="preserve">  85 (45.7%)  </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>134224 (54802)</t>
+          <t xml:space="preserve">  51 (31.1%)  </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>170420 (76702)</t>
+          <t xml:space="preserve">  37 (34.6%)  </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>152640 (72678)</t>
+          <t xml:space="preserve">  31 (31.3%)  </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>172200 (70772)</t>
+          <t xml:space="preserve">  5 (19.2%)   </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>176087 (64299)</t>
+          <t xml:space="preserve">  11 (47.8%)  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>144828 (65899)</t>
+          <t xml:space="preserve">  20 (90.9%)  </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.002  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>165078 (81748)</t>
+          <t>164049 (80916)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>150942 (78850)</t>
+          <t>150451 (78955)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>134355 (54810)</t>
+          <t>134224 (54802)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>170750 (76639)</t>
+          <t>170420 (76702)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>152790 (72668)</t>
+          <t>152640 (72678)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>172433 (70717)</t>
+          <t>172200 (70772)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>176390 (64225)</t>
+          <t>176087 (64299)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>145316 (65972)</t>
+          <t>144828 (65899)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1805,99 +1805,99 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>percent.mito</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.23 (0.90)  </t>
+          <t>165078 (81748)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.75 (1.17)  </t>
+          <t>150942 (78850)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.62 (1.01)  </t>
+          <t>134355 (54810)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.07 (1.07)  </t>
+          <t>170750 (76639)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.72 (1.15)  </t>
+          <t>152790 (72668)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.97 (1.02)  </t>
+          <t>172433 (70717)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.11 (0.77)  </t>
+          <t>176390 (64225)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.92 (1.00)  </t>
+          <t>145316 (65972)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.002  </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>percent.ribo</t>
+          <t>percent.mito</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.53 (2.72)  </t>
+          <t xml:space="preserve"> 2.23 (0.90)  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.68 (1.58)  </t>
+          <t xml:space="preserve"> 1.75 (1.17)  </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.75 (1.81)  </t>
+          <t xml:space="preserve"> 1.62 (1.01)  </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.44 (1.24)  </t>
+          <t xml:space="preserve"> 2.07 (1.07)  </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.28 (1.67)  </t>
+          <t xml:space="preserve"> 1.72 (1.15)  </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.11 (0.85)  </t>
+          <t xml:space="preserve"> 1.97 (1.02)  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.91 (1.35)  </t>
+          <t xml:space="preserve"> 2.11 (0.77)  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.01 (1.17)  </t>
+          <t xml:space="preserve"> 0.92 (1.00)  </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1909,111 +1909,111 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t>percent.ribo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 6.53 (2.72)  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.68 (1.58)  </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.75 (1.81)  </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.44 (1.24)  </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 3.28 (1.67)  </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.11 (0.85)  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.91 (1.35)  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.01 (1.17)  </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15773</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7 (3.76%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  25 (15.2%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (11.2%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (17.2%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (15.4%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15774</t>
+          <t xml:space="preserve">    23#15773</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2023,27 +2023,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (0.54%)   </t>
+          <t xml:space="preserve">  7 (3.76%)   </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  30 (18.3%)  </t>
+          <t xml:space="preserve">  25 (15.2%)  </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (9.35%)  </t>
+          <t xml:space="preserve">  12 (11.2%)  </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (6.06%)   </t>
+          <t xml:space="preserve">  17 (17.2%)  </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">  4 (15.4%)   </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2065,27 +2065,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15792</t>
+          <t xml:space="preserve">    23#15774</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (5.91%)  </t>
+          <t xml:space="preserve">  1 (0.54%)   </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (7.93%)  </t>
+          <t xml:space="preserve">  30 (18.3%)  </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (8.41%)   </t>
+          <t xml:space="preserve">  10 (9.35%)  </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (23.1%)   </t>
+          <t xml:space="preserve">  1 (3.85%)   </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    23#15792</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (7.53%)  </t>
+          <t xml:space="preserve">  11 (5.91%)  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (5.49%)   </t>
+          <t xml:space="preserve">  13 (7.93%)  </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (1.87%)   </t>
+          <t xml:space="preserve">  9 (8.41%)   </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2147,17 +2147,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">  6 (23.1%)   </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (21.7%)   </t>
+          <t xml:space="preserve">  1 (4.35%)   </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2169,47 +2169,47 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t xml:space="preserve">    386</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (50.0%)  </t>
+          <t xml:space="preserve">  1 (4.55%)   </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (5.38%)  </t>
+          <t xml:space="preserve">  14 (7.53%)  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (3.05%)   </t>
+          <t xml:space="preserve">  9 (5.49%)   </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (5.61%)   </t>
+          <t xml:space="preserve">  2 (1.87%)   </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (5.05%)   </t>
+          <t xml:space="preserve">  6 (6.06%)   </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  1 (3.85%)   </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">  5 (21.7%)   </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
+          <t xml:space="preserve">  3 (13.6%)   </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2221,47 +2221,47 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t xml:space="preserve">    387</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  11 (50.0%)  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (22.0%)  </t>
+          <t xml:space="preserve">  10 (5.38%)  </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (12.8%)  </t>
+          <t xml:space="preserve">  5 (3.05%)   </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (16.8%)  </t>
+          <t xml:space="preserve">  6 (5.61%)   </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (21.2%)  </t>
+          <t xml:space="preserve">  5 (5.05%)   </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (26.1%)   </t>
+          <t xml:space="preserve">  1 (4.35%)   </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  6 (27.3%)   </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2273,7 +2273,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    409</t>
+          <t xml:space="preserve">    388</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  33 (17.7%)  </t>
+          <t xml:space="preserve">  41 (22.0%)  </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (9.76%)  </t>
+          <t xml:space="preserve">  21 (12.8%)  </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2298,22 +2298,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (9.09%)   </t>
+          <t xml:space="preserve">  21 (21.2%)  </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (11.5%)   </t>
+          <t xml:space="preserve">  5 (19.2%)   </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve">  6 (26.1%)   </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2325,7 +2325,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    457</t>
+          <t xml:space="preserve">    409</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2335,27 +2335,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (22.0%)  </t>
+          <t xml:space="preserve">  33 (17.7%)  </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  24 (14.6%)  </t>
+          <t xml:space="preserve">  16 (9.76%)  </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (19.6%)  </t>
+          <t xml:space="preserve">  18 (16.8%)  </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (18.2%)  </t>
+          <t xml:space="preserve">  9 (9.09%)   </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">  3 (11.5%)   </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
+          <t xml:space="preserve">  3 (13.6%)   </t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2377,50 +2377,102 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t xml:space="preserve">    457</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (4.55%)   </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  41 (22.0%)  </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  24 (14.6%)  </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  21 (19.6%)  </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  18 (18.2%)  </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5 (19.2%)   </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (13.0%)   </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2 (9.09%)   </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t xml:space="preserve">    461</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">  6 (27.3%)   </t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">  28 (15.1%)  </t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">  21 (12.8%)  </t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">  11 (10.3%)  </t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve">  11 (11.1%)  </t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t xml:space="preserve">  1 (3.85%)   </t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t xml:space="preserve">  2 (8.70%)   </t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t xml:space="preserve">  8 (36.4%)   </t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>

--- a/docs/Descriptives.xlsx
+++ b/docs/Descriptives.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -354,45 +354,40 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>T/NK   N=22</t>
+          <t>Microglia_1   N=476</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Microglia_0   N=186</t>
+          <t>Microglia_2   N=160</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Microglia_1   N=164</t>
+          <t>Microglia_3   N=143</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Microglia_2   N=107</t>
+          <t>Microglia_4   N=45</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Microglia_3   N=99</t>
+          <t>Granulocytes   N=27</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Microglia_4   N=26</t>
+          <t>Microglia_5   N=19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Microglia_5   N=23</t>
+          <t>Mono/Mac   N=35</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Granulocytes   N=22</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>p.overall</t>
         </is>
@@ -406,17 +401,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -431,7 +426,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -440,11 +435,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">    .    </t>
         </is>
@@ -458,45 +448,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
+          <t xml:space="preserve">  91 (19.1%)   </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  27 (14.5%)  </t>
+          <t xml:space="preserve">  40 (25.0%)   </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (12.8%)  </t>
+          <t xml:space="preserve">  52 (36.4%)   </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (10.3%)  </t>
+          <t xml:space="preserve">  8 (17.8%)   </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (11.1%)  </t>
+          <t xml:space="preserve">  13 (48.1%)  </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">   5 (26.3%)   </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (8.70%)   </t>
+          <t xml:space="preserve">  8 (22.9%)   </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  8 (36.4%)   </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -510,45 +495,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (72.7%)  </t>
+          <t xml:space="preserve">  385 (80.9%)  </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 159 (85.5%)  </t>
+          <t xml:space="preserve">  120 (75.0%)  </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 143 (87.2%)  </t>
+          <t xml:space="preserve">  91 (63.6%)   </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  96 (89.7%)  </t>
+          <t xml:space="preserve">  37 (82.2%)  </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  88 (88.9%)  </t>
+          <t xml:space="preserve">  14 (51.9%)  </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  25 (96.2%)  </t>
+          <t xml:space="preserve">  14 (73.7%)   </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (91.3%)  </t>
+          <t xml:space="preserve">  27 (77.1%)  </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  14 (63.6%)  </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -562,17 +542,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,7 +567,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -597,62 +577,52 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">    10</t>
+          <t xml:space="preserve">    37 weeks</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (59.1%)  </t>
+          <t xml:space="preserve">  295 (62.0%)  </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  65 (34.9%)  </t>
+          <t xml:space="preserve">  100 (62.5%)  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  35 (21.3%)  </t>
+          <t xml:space="preserve">  83 (58.0%)   </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  26 (24.3%)  </t>
+          <t xml:space="preserve">  14 (31.1%)  </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  32 (32.3%)  </t>
+          <t xml:space="preserve">  15 (55.6%)  </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (23.1%)   </t>
+          <t xml:space="preserve">   8 (42.1%)   </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">  18 (51.4%)  </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  9 (40.9%)   </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -661,50 +631,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    17</t>
+          <t xml:space="preserve">    38 weeks</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  49 (10.3%)   </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (10.2%)  </t>
+          <t xml:space="preserve">  11 (6.88%)   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68 (41.5%)  </t>
+          <t xml:space="preserve">  16 (11.2%)   </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (29.0%)  </t>
+          <t xml:space="preserve">  3 (6.67%)   </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  29 (29.3%)  </t>
+          <t xml:space="preserve">  3 (11.1%)   </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (42.3%)  </t>
+          <t xml:space="preserve">   4 (21.1%)   </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve">  4 (11.4%)   </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -713,50 +678,45 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">    9</t>
+          <t xml:space="preserve">    40 weeks</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (36.4%)   </t>
+          <t xml:space="preserve">  132 (27.7%)  </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102 (54.8%)  </t>
+          <t xml:space="preserve">  49 (30.6%)   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  61 (37.2%)  </t>
+          <t xml:space="preserve">  44 (30.8%)   </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  50 (46.7%)  </t>
+          <t xml:space="preserve">  28 (62.2%)  </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  38 (38.4%)  </t>
+          <t xml:space="preserve">  9 (33.3%)   </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (34.6%)   </t>
+          <t xml:space="preserve">   7 (36.8%)   </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (34.8%)   </t>
+          <t xml:space="preserve">  13 (37.1%)  </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  13 (59.1%)  </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -770,17 +730,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -795,7 +755,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -805,12 +765,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.506  </t>
         </is>
       </c>
     </row>
@@ -822,45 +777,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  200 (42.0%)  </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  66 (35.5%)  </t>
+          <t xml:space="preserve">  65 (40.6%)   </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93 (56.7%)  </t>
+          <t xml:space="preserve">  61 (42.7%)   </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  51 (47.7%)  </t>
+          <t xml:space="preserve">  14 (31.1%)  </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  44 (44.4%)  </t>
+          <t xml:space="preserve">  9 (33.3%)   </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (57.7%)  </t>
+          <t xml:space="preserve">  10 (52.6%)   </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (47.8%)  </t>
+          <t xml:space="preserve">  18 (51.4%)  </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -874,45 +824,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (86.4%)  </t>
+          <t xml:space="preserve">  276 (58.0%)  </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 120 (64.5%)  </t>
+          <t xml:space="preserve">  95 (59.4%)   </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  71 (43.3%)  </t>
+          <t xml:space="preserve">  82 (57.3%)   </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (52.3%)  </t>
+          <t xml:space="preserve">  31 (68.9%)  </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  55 (55.6%)  </t>
+          <t xml:space="preserve">  18 (66.7%)  </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (42.3%)  </t>
+          <t xml:space="preserve">   9 (47.4%)   </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">  17 (48.6%)  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  16 (72.7%)  </t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -926,17 +871,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -951,7 +896,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -960,11 +905,6 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;0.001  </t>
         </is>
@@ -978,45 +918,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  337 (70.8%)  </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101 (54.3%)  </t>
+          <t xml:space="preserve">  96 (60.0%)   </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 (68.9%)  </t>
+          <t xml:space="preserve">  70 (49.0%)   </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (65.4%)  </t>
+          <t xml:space="preserve">  13 (28.9%)  </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68 (68.7%)  </t>
+          <t xml:space="preserve">  5 (18.5%)   </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (80.8%)  </t>
+          <t xml:space="preserve">  13 (68.4%)   </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">  13 (37.1%)  </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1030,45 +965,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (86.4%)  </t>
+          <t xml:space="preserve">  139 (29.2%)  </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85 (45.7%)  </t>
+          <t xml:space="preserve">  64 (40.0%)   </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  51 (31.1%)  </t>
+          <t xml:space="preserve">  73 (51.0%)   </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  37 (34.6%)  </t>
+          <t xml:space="preserve">  32 (71.1%)  </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (31.3%)  </t>
+          <t xml:space="preserve">  22 (81.5%)  </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">   6 (31.6%)   </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (47.8%)  </t>
+          <t xml:space="preserve">  22 (62.9%)  </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  20 (90.9%)  </t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1082,17 +1012,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1107,7 +1037,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1116,11 +1046,6 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t xml:space="preserve">    .    </t>
         </is>
@@ -1134,45 +1059,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
+          <t xml:space="preserve">  220 (46.2%)  </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  82 (44.1%)  </t>
+          <t xml:space="preserve">  54 (33.8%)   </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  45 (27.4%)  </t>
+          <t xml:space="preserve">  21 (14.7%)   </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  39 (36.4%)  </t>
+          <t xml:space="preserve">  3 (6.67%)   </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  39 (39.4%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (38.5%)  </t>
+          <t xml:space="preserve">   8 (42.1%)   </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (39.1%)   </t>
+          <t xml:space="preserve">  5 (14.3%)   </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1186,45 +1106,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (77.3%)  </t>
+          <t xml:space="preserve">  56 (11.8%)   </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  38 (20.4%)  </t>
+          <t xml:space="preserve">  41 (25.6%)   </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  26 (15.9%)  </t>
+          <t xml:space="preserve">  61 (42.7%)   </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (15.9%)  </t>
+          <t xml:space="preserve">  28 (62.2%)  </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (16.2%)  </t>
+          <t xml:space="preserve">  18 (66.7%)  </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">   1 (5.26%)   </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve">  12 (34.3%)  </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  14 (63.6%)  </t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1238,45 +1153,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  117 (24.6%)  </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (10.2%)  </t>
+          <t xml:space="preserve">  42 (26.2%)   </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68 (41.5%)  </t>
+          <t xml:space="preserve">  49 (34.3%)   </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (29.0%)  </t>
+          <t xml:space="preserve">  10 (22.2%)  </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  29 (29.3%)  </t>
+          <t xml:space="preserve">  5 (18.5%)   </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (42.3%)  </t>
+          <t xml:space="preserve">   5 (26.3%)   </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve">  8 (22.9%)   </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1290,45 +1200,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
+          <t xml:space="preserve">  83 (17.4%)   </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  47 (25.3%)  </t>
+          <t xml:space="preserve">  23 (14.4%)   </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  25 (15.2%)  </t>
+          <t xml:space="preserve">  12 (8.39%)   </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20 (18.7%)  </t>
+          <t xml:space="preserve">  4 (8.89%)   </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (15.2%)  </t>
+          <t xml:space="preserve">  4 (14.8%)   </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (15.4%)   </t>
+          <t xml:space="preserve">   5 (26.3%)   </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (34.8%)   </t>
+          <t xml:space="preserve">  10 (28.6%)  </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1342,17 +1247,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1367,7 +1272,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1377,12 +1282,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0.002  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
@@ -1394,45 +1294,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  211 (44.3%)  </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  79 (42.5%)  </t>
+          <t xml:space="preserve">  60 (37.5%)   </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (42.7%)  </t>
+          <t xml:space="preserve">  46 (32.2%)   </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  59 (55.1%)  </t>
+          <t xml:space="preserve">  20 (44.4%)  </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  42 (42.4%)  </t>
+          <t xml:space="preserve">  8 (29.6%)   </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (46.2%)  </t>
+          <t xml:space="preserve">  12 (63.2%)   </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (60.9%)  </t>
+          <t xml:space="preserve">  12 (34.3%)  </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  5 (22.7%)   </t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1446,45 +1341,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (50.0%)  </t>
+          <t xml:space="preserve">  114 (23.9%)  </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  50 (26.9%)  </t>
+          <t xml:space="preserve">  38 (23.8%)   </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  38 (23.2%)  </t>
+          <t xml:space="preserve">  40 (28.0%)   </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (15.9%)  </t>
+          <t xml:space="preserve">  11 (24.4%)  </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (21.2%)  </t>
+          <t xml:space="preserve">  11 (40.7%)  </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (23.1%)   </t>
+          <t xml:space="preserve">   3 (15.8%)   </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (17.4%)   </t>
+          <t xml:space="preserve">  13 (37.1%)  </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  11 (50.0%)  </t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1498,45 +1388,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (45.5%)  </t>
+          <t xml:space="preserve">  151 (31.7%)  </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  57 (30.6%)  </t>
+          <t xml:space="preserve">  62 (38.8%)   </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (34.1%)  </t>
+          <t xml:space="preserve">  57 (39.9%)   </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (29.0%)  </t>
+          <t xml:space="preserve">  14 (31.1%)  </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  36 (36.4%)  </t>
+          <t xml:space="preserve">  8 (29.6%)   </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (30.8%)   </t>
+          <t xml:space="preserve">   4 (21.1%)   </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (21.7%)   </t>
+          <t xml:space="preserve">  10 (28.6%)  </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1550,47 +1435,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t xml:space="preserve">  3.65 (1.91)  </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  8.25 (1.04)  </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  11.4 (1.55)  </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.9 (1.50)  </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.23 (1.73)  </t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.66 (2.14)  </t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.17 (1.76)  </t>
+          <t xml:space="preserve"> 25.4 (0.15)  </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t xml:space="preserve">  0.37 (0.28)  </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16.9 (0.61)  </t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">    . (.)     </t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.000  </t>
         </is>
       </c>
     </row>
@@ -1602,17 +1482,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1627,7 +1507,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1636,11 +1516,6 @@
         </is>
       </c>
       <c r="I25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;0.001  </t>
         </is>
@@ -1654,45 +1529,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
+          <t xml:space="preserve">  337 (70.8%)  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101 (54.3%)  </t>
+          <t xml:space="preserve">  96 (60.0%)   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113 (68.9%)  </t>
+          <t xml:space="preserve">  70 (49.0%)   </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (65.4%)  </t>
+          <t xml:space="preserve">  13 (28.9%)  </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68 (68.7%)  </t>
+          <t xml:space="preserve">  5 (18.5%)   </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (80.8%)  </t>
+          <t xml:space="preserve">  13 (68.4%)   </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (52.2%)  </t>
+          <t xml:space="preserve">  13 (37.1%)  </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1706,45 +1576,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  19 (86.4%)  </t>
+          <t xml:space="preserve">  139 (29.2%)  </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85 (45.7%)  </t>
+          <t xml:space="preserve">  64 (40.0%)   </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  51 (31.1%)  </t>
+          <t xml:space="preserve">  73 (51.0%)   </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  37 (34.6%)  </t>
+          <t xml:space="preserve">  32 (71.1%)  </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (31.3%)  </t>
+          <t xml:space="preserve">  22 (81.5%)  </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">   6 (31.6%)   </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (47.8%)  </t>
+          <t xml:space="preserve">  22 (62.9%)  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  20 (90.9%)  </t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -1758,47 +1623,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>164049 (80916)</t>
+          <t xml:space="preserve">144231 (99988) </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>150451 (78955)</t>
+          <t>165293 (106792)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>134224 (54802)</t>
+          <t>101350 (115577)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>170420 (76702)</t>
+          <t>45112 (115701)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>152640 (72678)</t>
+          <t>128528 (83221)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>172200 (70772)</t>
+          <t>156629 (113020)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>176087 (64299)</t>
+          <t>139846 (82161)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>144828 (65899)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0.002  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
@@ -1810,97 +1670,87 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>165078 (81748)</t>
+          <t>144728 (100322)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>150942 (78850)</t>
+          <t>165698 (106875)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>134355 (54810)</t>
+          <t>102184 (115632)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>170750 (76639)</t>
+          <t>45218 (115828)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>152790 (72668)</t>
+          <t>128986 (83445)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>172433 (70717)</t>
+          <t>157045 (113080)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>176390 (64225)</t>
+          <t>140931 (82079)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>145316 (65972)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0.002  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>percent.mito</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.23 (0.90)  </t>
+          <t xml:space="preserve">  1.84 (1.32)  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.75 (1.17)  </t>
+          <t xml:space="preserve">  2.44 (1.89)  </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.62 (1.01)  </t>
+          <t xml:space="preserve">  1.37 (1.37)  </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.07 (1.07)  </t>
+          <t xml:space="preserve"> 1.05 (1.56)  </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.72 (1.15)  </t>
+          <t xml:space="preserve"> 0.86 (0.96)  </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.97 (1.02)  </t>
+          <t xml:space="preserve">  1.98 (0.91)  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.11 (0.77)  </t>
+          <t xml:space="preserve"> 1.99 (1.37)  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.92 (1.00)  </t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;0.001  </t>
         </is>
@@ -1909,50 +1759,45 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>percent.ribo</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.53 (2.72)  </t>
+          <t xml:space="preserve">  2.10 (1.25)  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.68 (1.58)  </t>
+          <t xml:space="preserve">  2.82 (2.11)  </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.75 (1.81)  </t>
+          <t xml:space="preserve">  1.10 (1.37)  </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.44 (1.24)  </t>
+          <t xml:space="preserve"> 0.52 (0.67)  </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.28 (1.67)  </t>
+          <t xml:space="preserve"> 1.63 (0.96)  </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.11 (0.85)  </t>
+          <t xml:space="preserve">  2.12 (1.25)  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.91 (1.35)  </t>
+          <t xml:space="preserve"> 3.14 (2.50)  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.01 (1.17)  </t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;0.001  </t>
         </is>
@@ -1966,17 +1811,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1991,7 +1836,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2000,11 +1845,6 @@
         </is>
       </c>
       <c r="I32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
         <is>
           <t xml:space="preserve">    .    </t>
         </is>
@@ -2013,50 +1853,45 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15773</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t xml:space="preserve">  35 (7.35%)   </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  15 (9.38%)   </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  15 (10.5%)   </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (6.67%)   </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  7 (3.76%)   </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  25 (15.2%)  </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  12 (11.2%)  </t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  17 (17.2%)  </t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (15.4%)   </t>
+          <t xml:space="preserve">   1 (5.26%)   </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">  2 (5.71%)   </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2065,50 +1900,45 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15774</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  33 (6.93%)   </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (0.54%)   </t>
+          <t xml:space="preserve">  16 (10.0%)   </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  30 (18.3%)  </t>
+          <t xml:space="preserve">  18 (12.6%)   </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (9.35%)  </t>
+          <t xml:space="preserve">  4 (8.89%)   </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (6.06%)   </t>
+          <t xml:space="preserve">  2 (7.41%)   </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">  2 (5.71%)   </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2117,50 +1947,45 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    23#15792</t>
+          <t xml:space="preserve">    364#469</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  49 (10.3%)   </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (5.91%)  </t>
+          <t xml:space="preserve">  11 (6.88%)   </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (7.93%)  </t>
+          <t xml:space="preserve">  16 (11.2%)   </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (8.41%)   </t>
+          <t xml:space="preserve">  3 (6.67%)   </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (6.06%)   </t>
+          <t xml:space="preserve">  3 (11.1%)   </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (23.1%)   </t>
+          <t xml:space="preserve">   4 (21.1%)   </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">  4 (11.4%)   </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2174,45 +1999,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  21 (4.41%)   </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (7.53%)  </t>
+          <t xml:space="preserve">   6 (3.75%)   </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (5.49%)   </t>
+          <t xml:space="preserve">  11 (7.69%)   </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (1.87%)   </t>
+          <t xml:space="preserve">  4 (8.89%)   </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (6.06%)   </t>
+          <t xml:space="preserve">  1 (3.70%)   </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">   1 (5.26%)   </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (21.7%)   </t>
+          <t xml:space="preserve">  6 (17.1%)   </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2226,45 +2046,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (50.0%)  </t>
+          <t xml:space="preserve">  14 (2.94%)   </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (5.38%)  </t>
+          <t xml:space="preserve">  12 (7.50%)   </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (3.05%)   </t>
+          <t xml:space="preserve">  25 (17.5%)   </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (5.61%)   </t>
+          <t xml:space="preserve">  23 (51.1%)  </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (5.05%)   </t>
+          <t xml:space="preserve">  8 (29.6%)   </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.35%)   </t>
+          <t xml:space="preserve">  7 (20.0%)   </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2278,45 +2093,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  97 (20.4%)   </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (22.0%)  </t>
+          <t xml:space="preserve">  31 (19.4%)   </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (12.8%)  </t>
+          <t xml:space="preserve">   8 (5.59%)   </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (16.8%)  </t>
+          <t xml:space="preserve">  1 (2.22%)   </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (21.2%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">   6 (31.6%)   </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (26.1%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2330,45 +2140,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  62 (13.0%)   </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  33 (17.7%)  </t>
+          <t xml:space="preserve">  17 (10.6%)   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (9.76%)  </t>
+          <t xml:space="preserve">   1 (0.70%)   </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (16.8%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (9.09%)   </t>
+          <t xml:space="preserve">  3 (11.1%)   </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (11.5%)   </t>
+          <t xml:space="preserve">   4 (21.1%)   </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve">  4 (11.4%)   </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  3 (13.6%)   </t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2382,45 +2187,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (4.55%)   </t>
+          <t xml:space="preserve">  123 (25.8%)  </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (22.0%)  </t>
+          <t xml:space="preserve">  23 (14.4%)   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  24 (14.6%)  </t>
+          <t xml:space="preserve">  13 (9.09%)   </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (19.6%)  </t>
+          <t xml:space="preserve">  2 (4.44%)   </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (18.2%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (19.2%)   </t>
+          <t xml:space="preserve">   2 (10.5%)   </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (13.0%)   </t>
+          <t xml:space="preserve">  5 (14.3%)   </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  2 (9.09%)   </t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
@@ -2434,45 +2234,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (27.3%)   </t>
+          <t xml:space="preserve">  42 (8.82%)   </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  28 (15.1%)  </t>
+          <t xml:space="preserve">  29 (18.1%)   </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (12.8%)  </t>
+          <t xml:space="preserve">  36 (25.2%)   </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (10.3%)  </t>
+          <t xml:space="preserve">  5 (11.1%)   </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (11.1%)  </t>
+          <t xml:space="preserve">  10 (37.0%)  </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.85%)   </t>
+          <t xml:space="preserve">   1 (5.26%)   </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (8.70%)   </t>
+          <t xml:space="preserve">  5 (14.3%)   </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  8 (36.4%)   </t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>

--- a/docs/Descriptives.xlsx
+++ b/docs/Descriptives.xlsx
@@ -354,37 +354,37 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Microglia_1   N=476</t>
+          <t>Microglia_1   N=372</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Microglia_2   N=160</t>
+          <t>Microglia_2   N=86</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Microglia_3   N=143</t>
+          <t>Microglia_3   N=57</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Microglia_4   N=45</t>
+          <t>Microglia_4   N=8</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Granulocytes   N=27</t>
+          <t>Granulocytes   N=4</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Microglia_5   N=19</t>
+          <t>Microglia_5   N=15</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Mono/Mac   N=35</t>
+          <t>Mono/Mac   N=20</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -416,27 +416,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">  0.276  </t>
         </is>
       </c>
     </row>
@@ -448,37 +448,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  91 (19.1%)   </t>
+          <t xml:space="preserve">  73 (19.6%)   </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  40 (25.0%)   </t>
+          <t xml:space="preserve">  20 (23.3%)   </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  52 (36.4%)   </t>
+          <t xml:space="preserve">  17 (29.8%)   </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (17.8%)   </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (48.1%)  </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5 (26.3%)   </t>
+          <t xml:space="preserve">   5 (33.3%)   </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (22.9%)   </t>
+          <t xml:space="preserve">  5 (25.0%)   </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -495,37 +495,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  385 (80.9%)  </t>
+          <t xml:space="preserve">  299 (80.4%)  </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  120 (75.0%)  </t>
+          <t xml:space="preserve">  66 (76.7%)   </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  91 (63.6%)   </t>
+          <t xml:space="preserve">  40 (70.2%)   </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  37 (82.2%)  </t>
+          <t xml:space="preserve">   6 (75.0%)   </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (51.9%)  </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (73.7%)   </t>
+          <t xml:space="preserve">  10 (66.7%)   </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  27 (77.1%)  </t>
+          <t xml:space="preserve">  15 (75.0%)  </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -589,37 +589,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  295 (62.0%)  </t>
+          <t xml:space="preserve">  226 (60.8%)  </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  100 (62.5%)  </t>
+          <t xml:space="preserve">  56 (65.1%)   </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  83 (58.0%)   </t>
+          <t xml:space="preserve">  41 (71.9%)   </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (31.1%)  </t>
+          <t xml:space="preserve">   6 (75.0%)   </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (55.6%)  </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (42.1%)   </t>
+          <t xml:space="preserve">   7 (46.7%)   </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (51.4%)  </t>
+          <t xml:space="preserve">  11 (55.0%)  </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -636,37 +636,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  49 (10.3%)   </t>
+          <t xml:space="preserve">  44 (11.8%)   </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (6.88%)   </t>
+          <t xml:space="preserve">   8 (9.30%)   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (11.2%)   </t>
+          <t xml:space="preserve">  13 (22.8%)   </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (6.67%)   </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (11.1%)   </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (21.1%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (11.4%)   </t>
+          <t xml:space="preserve">  3 (15.0%)   </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -683,37 +683,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  132 (27.7%)  </t>
+          <t xml:space="preserve">  102 (27.4%)  </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  49 (30.6%)   </t>
+          <t xml:space="preserve">  22 (25.6%)   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  44 (30.8%)   </t>
+          <t xml:space="preserve">   3 (5.26%)   </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  28 (62.2%)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (33.3%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   7 (36.8%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (37.1%)  </t>
+          <t xml:space="preserve">  6 (30.0%)   </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -745,27 +745,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.506  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
@@ -777,37 +777,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  200 (42.0%)  </t>
+          <t xml:space="preserve">  170 (45.7%)  </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  65 (40.6%)   </t>
+          <t xml:space="preserve">  43 (50.0%)   </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  61 (42.7%)   </t>
+          <t xml:space="preserve">  42 (73.7%)   </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (31.1%)  </t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9 (33.3%)   </t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (52.6%)   </t>
+          <t xml:space="preserve">   8 (53.3%)   </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (51.4%)  </t>
+          <t xml:space="preserve">  15 (75.0%)  </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -824,37 +824,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  276 (58.0%)  </t>
+          <t xml:space="preserve">  202 (54.3%)  </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  95 (59.4%)   </t>
+          <t xml:space="preserve">  43 (50.0%)   </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  82 (57.3%)   </t>
+          <t xml:space="preserve">  15 (26.3%)   </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (68.9%)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (66.7%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9 (47.4%)   </t>
+          <t xml:space="preserve">   7 (46.7%)   </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (48.6%)  </t>
+          <t xml:space="preserve">  5 (25.0%)   </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -886,27 +886,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
@@ -918,37 +918,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  337 (70.8%)  </t>
+          <t xml:space="preserve">  272 (73.1%)  </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  96 (60.0%)   </t>
+          <t xml:space="preserve">  56 (65.1%)   </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (49.0%)   </t>
+          <t xml:space="preserve">  52 (91.2%)   </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (28.9%)  </t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (18.5%)   </t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (68.4%)   </t>
+          <t xml:space="preserve">  11 (73.3%)   </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (37.1%)  </t>
+          <t xml:space="preserve">  8 (40.0%)   </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -965,37 +965,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  139 (29.2%)  </t>
+          <t xml:space="preserve">  100 (26.9%)  </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  64 (40.0%)   </t>
+          <t xml:space="preserve">  30 (34.9%)   </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  73 (51.0%)   </t>
+          <t xml:space="preserve">   5 (8.77%)   </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  32 (71.1%)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  22 (81.5%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6 (31.6%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  22 (62.9%)  </t>
+          <t xml:space="preserve">  12 (60.0%)  </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  220 (46.2%)  </t>
+          <t xml:space="preserve">  164 (44.1%)  </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  54 (33.8%)   </t>
+          <t xml:space="preserve">  28 (32.6%)   </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (14.7%)   </t>
+          <t xml:space="preserve">  10 (17.5%)   </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (6.67%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (42.1%)   </t>
+          <t xml:space="preserve">   6 (40.0%)   </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (14.3%)   </t>
+          <t xml:space="preserve">  1 (5.00%)   </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1106,37 +1106,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (11.8%)   </t>
+          <t xml:space="preserve">  38 (10.2%)   </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (25.6%)   </t>
+          <t xml:space="preserve">  15 (17.4%)   </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  61 (42.7%)   </t>
+          <t xml:space="preserve">   5 (8.77%)   </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  28 (62.2%)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (66.7%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (5.26%)   </t>
+          <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (34.3%)  </t>
+          <t xml:space="preserve">  4 (20.0%)   </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1153,37 +1153,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  117 (24.6%)  </t>
+          <t xml:space="preserve">  108 (29.0%)  </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  42 (26.2%)   </t>
+          <t xml:space="preserve">  28 (32.6%)   </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  49 (34.3%)   </t>
+          <t xml:space="preserve">  42 (73.7%)   </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (22.2%)  </t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (18.5%)   </t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5 (26.3%)   </t>
+          <t xml:space="preserve">   5 (33.3%)   </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (22.9%)   </t>
+          <t xml:space="preserve">  7 (35.0%)   </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1200,37 +1200,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  83 (17.4%)   </t>
+          <t xml:space="preserve">  62 (16.7%)   </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  23 (14.4%)   </t>
+          <t xml:space="preserve">  15 (17.4%)   </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (8.39%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (8.89%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (14.8%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5 (26.3%)   </t>
+          <t xml:space="preserve">   3 (20.0%)   </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (28.6%)  </t>
+          <t xml:space="preserve">  8 (40.0%)   </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1294,37 +1294,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  211 (44.3%)  </t>
+          <t xml:space="preserve">  159 (42.7%)  </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  60 (37.5%)   </t>
+          <t xml:space="preserve">  36 (41.9%)   </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  46 (32.2%)   </t>
+          <t xml:space="preserve">  19 (33.3%)   </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20 (44.4%)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (29.6%)   </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (63.2%)   </t>
+          <t xml:space="preserve">  10 (66.7%)   </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (34.3%)  </t>
+          <t xml:space="preserve">  9 (45.0%)   </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1341,37 +1341,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  114 (23.9%)  </t>
+          <t xml:space="preserve">  95 (25.5%)   </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  38 (23.8%)   </t>
+          <t xml:space="preserve">  18 (20.9%)   </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  40 (28.0%)   </t>
+          <t xml:space="preserve">  17 (29.8%)   </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (24.4%)  </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (40.7%)  </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3 (15.8%)   </t>
+          <t xml:space="preserve">   2 (13.3%)   </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (37.1%)  </t>
+          <t xml:space="preserve">  6 (30.0%)   </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1388,37 +1388,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  151 (31.7%)  </t>
+          <t xml:space="preserve">  118 (31.7%)  </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  62 (38.8%)   </t>
+          <t xml:space="preserve">  32 (37.2%)   </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  57 (39.9%)   </t>
+          <t xml:space="preserve">  21 (36.8%)   </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (31.1%)  </t>
+          <t xml:space="preserve">   6 (75.0%)   </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (29.6%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (21.1%)   </t>
+          <t xml:space="preserve">   3 (20.0%)   </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (28.6%)  </t>
+          <t xml:space="preserve">  5 (25.0%)   </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1435,42 +1435,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.65 (1.91)  </t>
+          <t xml:space="preserve">  9.46 (1.99)  </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8.25 (1.04)  </t>
+          <t xml:space="preserve">  7.09 (0.78)  </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11.4 (1.55)  </t>
+          <t xml:space="preserve">  4.14 (0.28)  </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t xml:space="preserve">     . (.)     </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25.4 (0.15)  </t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.37 (0.28)  </t>
+          <t xml:space="preserve">  13.1 (0.29)  </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">    . (.)     </t>
+          <t xml:space="preserve"> 1.42 (0.96)  </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.000  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
@@ -1497,27 +1497,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">               </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">              </t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               </t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              </t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
@@ -1529,37 +1529,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  337 (70.8%)  </t>
+          <t xml:space="preserve">  272 (73.1%)  </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  96 (60.0%)   </t>
+          <t xml:space="preserve">  56 (65.1%)   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70 (49.0%)   </t>
+          <t xml:space="preserve">  52 (91.2%)   </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (28.9%)  </t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (18.5%)   </t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (68.4%)   </t>
+          <t xml:space="preserve">  11 (73.3%)   </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (37.1%)  </t>
+          <t xml:space="preserve">  8 (40.0%)   </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1576,37 +1576,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  139 (29.2%)  </t>
+          <t xml:space="preserve">  100 (26.9%)  </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  64 (40.0%)   </t>
+          <t xml:space="preserve">  30 (34.9%)   </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  73 (51.0%)   </t>
+          <t xml:space="preserve">   5 (8.77%)   </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  32 (71.1%)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  22 (81.5%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6 (31.6%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  22 (62.9%)  </t>
+          <t xml:space="preserve">  12 (60.0%)  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1623,42 +1623,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">144231 (99988) </t>
+          <t>158416 (103720)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>165293 (106792)</t>
+          <t>194411 (106729)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>101350 (115577)</t>
+          <t>164921 (154435)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>45112 (115701)</t>
+          <t>217767 (205467)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>128528 (83221)</t>
+          <t>204215 (86217)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>156629 (113020)</t>
+          <t>165673 (126013)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>139846 (82161)</t>
+          <t>162375 (90426)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.154  </t>
         </is>
       </c>
     </row>
@@ -1670,42 +1670,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>144728 (100322)</t>
+          <t>158947 (104087)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>165698 (106875)</t>
+          <t>194836 (106825)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>102184 (115632)</t>
+          <t>165764 (154492)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>45218 (115828)</t>
+          <t>218138 (205598)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>128986 (83445)</t>
+          <t>204425 (86225)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>157045 (113080)</t>
+          <t>166053 (126105)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>140931 (82079)</t>
+          <t>163005 (90604)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.160  </t>
         </is>
       </c>
     </row>
@@ -1717,42 +1717,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.84 (1.32)  </t>
+          <t xml:space="preserve">  1.90 (1.35)  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.44 (1.89)  </t>
+          <t xml:space="preserve">  2.14 (1.78)  </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.37 (1.37)  </t>
+          <t xml:space="preserve">  1.44 (1.07)  </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.05 (1.56)  </t>
+          <t xml:space="preserve">  1.66 (1.04)  </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.86 (0.96)  </t>
+          <t xml:space="preserve"> 0.98 (1.13)  </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.98 (0.91)  </t>
+          <t xml:space="preserve">  2.01 (1.01)  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.99 (1.37)  </t>
+          <t xml:space="preserve"> 2.04 (1.27)  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.089  </t>
         </is>
       </c>
     </row>
@@ -1764,37 +1764,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.10 (1.25)  </t>
+          <t xml:space="preserve">  2.21 (1.29)  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.82 (2.11)  </t>
+          <t xml:space="preserve">  3.05 (2.17)  </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.10 (1.37)  </t>
+          <t xml:space="preserve">  1.48 (1.34)  </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.52 (0.67)  </t>
+          <t xml:space="preserve">  0.98 (0.41)  </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.63 (0.96)  </t>
+          <t xml:space="preserve"> 1.02 (0.50)  </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.12 (1.25)  </t>
+          <t xml:space="preserve">  2.03 (1.25)  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.14 (2.50)  </t>
+          <t xml:space="preserve"> 3.16 (2.30)  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1858,22 +1858,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  35 (7.35%)   </t>
+          <t xml:space="preserve">  33 (8.87%)   </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (9.38%)   </t>
+          <t xml:space="preserve">   9 (10.5%)   </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (10.5%)   </t>
+          <t xml:space="preserve">  13 (22.8%)   </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (6.67%)   </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (5.26%)   </t>
+          <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (5.71%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1905,27 +1905,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  33 (6.93%)   </t>
+          <t xml:space="preserve">  31 (8.33%)   </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (10.0%)   </t>
+          <t xml:space="preserve">  11 (12.8%)   </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18 (12.6%)   </t>
+          <t xml:space="preserve">  16 (28.1%)   </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (8.89%)   </t>
+          <t xml:space="preserve">   4 (50.0%)   </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (7.41%)   </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (5.71%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1952,37 +1952,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  49 (10.3%)   </t>
+          <t xml:space="preserve">  44 (11.8%)   </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (6.88%)   </t>
+          <t xml:space="preserve">   8 (9.30%)   </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (11.2%)   </t>
+          <t xml:space="preserve">  13 (22.8%)   </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (6.67%)   </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (11.1%)   </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (21.1%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (11.4%)   </t>
+          <t xml:space="preserve">  3 (15.0%)   </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1999,37 +1999,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  21 (4.41%)   </t>
+          <t xml:space="preserve">  16 (4.30%)   </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6 (3.75%)   </t>
+          <t xml:space="preserve">   4 (4.65%)   </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (7.69%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (8.89%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (3.70%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (5.26%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6 (17.1%)   </t>
+          <t xml:space="preserve">  4 (20.0%)   </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2046,27 +2046,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14 (2.94%)   </t>
+          <t xml:space="preserve">   9 (2.42%)   </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (7.50%)   </t>
+          <t xml:space="preserve">   3 (3.49%)   </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  25 (17.5%)   </t>
+          <t xml:space="preserve">   1 (1.75%)   </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  23 (51.1%)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (29.6%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7 (20.0%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2093,22 +2093,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  97 (20.4%)   </t>
+          <t xml:space="preserve">  77 (20.7%)   </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (19.4%)   </t>
+          <t xml:space="preserve">  15 (17.4%)   </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (5.59%)   </t>
+          <t xml:space="preserve">   2 (3.51%)   </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (2.22%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6 (31.6%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2140,37 +2140,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  62 (13.0%)   </t>
+          <t xml:space="preserve">  46 (12.4%)   </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17 (10.6%)   </t>
+          <t xml:space="preserve">  11 (12.8%)   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (0.70%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  3 (11.1%)   </t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (21.1%)   </t>
+          <t xml:space="preserve">   3 (20.0%)   </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (11.4%)   </t>
+          <t xml:space="preserve">  4 (20.0%)   </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2187,22 +2187,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  123 (25.8%)  </t>
+          <t xml:space="preserve">  87 (23.4%)   </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  23 (14.4%)   </t>
+          <t xml:space="preserve">  13 (15.1%)   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (9.09%)   </t>
+          <t xml:space="preserve">   8 (14.0%)   </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (4.44%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (10.5%)   </t>
+          <t xml:space="preserve">   2 (13.3%)   </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (14.3%)   </t>
+          <t xml:space="preserve">  1 (5.00%)   </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2234,37 +2234,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  42 (8.82%)   </t>
+          <t xml:space="preserve">  29 (7.80%)   </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  29 (18.1%)   </t>
+          <t xml:space="preserve">  12 (14.0%)   </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  36 (25.2%)   </t>
+          <t xml:space="preserve">   4 (7.02%)   </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (11.1%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10 (37.0%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (5.26%)   </t>
+          <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5 (14.3%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">

--- a/docs/Descriptives.xlsx
+++ b/docs/Descriptives.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1430,136 +1430,136 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pseudotime</t>
+          <t>Control_spatial_binary:</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9.46 (1.99)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7.09 (0.78)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.14 (0.28)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">     . (.)     </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">    . (.)     </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13.1 (0.29)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.42 (0.96)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.080  </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t xml:space="preserve">    FALSE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  338 (91.1%)  </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  75 (87.2%)   </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   57 (100%)   </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   15 (100%)   </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">   8 (100%)   </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t xml:space="preserve">    TRUE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  272 (73.1%)  </t>
+          <t xml:space="preserve">  33 (8.89%)   </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (65.1%)   </t>
+          <t xml:space="preserve">  11 (12.8%)   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  52 (91.2%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (100%)    </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (100%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (73.3%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (40.0%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1571,309 +1571,309 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t>Stroke_spatial_binary:</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  100 (26.9%)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  30 (34.9%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5 (8.77%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (60.0%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t xml:space="preserve">    FALSE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>158416 (103720)</t>
+          <t xml:space="preserve">  240 (64.7%)  </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>194411 (106729)</t>
+          <t xml:space="preserve">  55 (64.0%)   </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>164921 (154435)</t>
+          <t xml:space="preserve">  53 (93.0%)   </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>217767 (205467)</t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>204215 (86217)</t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>165673 (126013)</t>
+          <t xml:space="preserve">  11 (73.3%)   </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>162375 (90426)</t>
+          <t xml:space="preserve">   8 (100%)   </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.154  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t xml:space="preserve">    TRUE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>158947 (104087)</t>
+          <t xml:space="preserve">  131 (35.3%)  </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>194836 (106825)</t>
+          <t xml:space="preserve">  31 (36.0%)   </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>165764 (154492)</t>
+          <t xml:space="preserve">   4 (7.02%)   </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>218138 (205598)</t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>204425 (86225)</t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>166053 (126105)</t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>163005 (90604)</t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.160  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>percent.mt</t>
+          <t>Pseudotime</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.90 (1.35)  </t>
+          <t xml:space="preserve">  9.46 (1.99)  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.14 (1.78)  </t>
+          <t xml:space="preserve">  7.09 (0.78)  </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.44 (1.07)  </t>
+          <t xml:space="preserve">  4.14 (0.28)  </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.66 (1.04)  </t>
+          <t xml:space="preserve">     . (.)     </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.98 (1.13)  </t>
+          <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.01 (1.01)  </t>
+          <t xml:space="preserve">  13.1 (0.29)  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.04 (1.27)  </t>
+          <t xml:space="preserve"> 1.42 (0.96)  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.089  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>percent.rp</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.21 (1.29)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.05 (2.17)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.48 (1.34)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.98 (0.41)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.02 (0.50)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.03 (1.25)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.16 (2.30)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  272 (73.1%)  </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  56 (65.1%)   </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  52 (91.2%)   </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  11 (73.3%)   </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  8 (40.0%)   </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1022</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  33 (8.87%)   </t>
+          <t xml:space="preserve">  100 (26.9%)  </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9 (10.5%)   </t>
+          <t xml:space="preserve">  30 (34.9%)   </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (22.8%)   </t>
+          <t xml:space="preserve">   5 (8.77%)   </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (25.0%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (6.67%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t xml:space="preserve">  12 (60.0%)  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1900,262 +1900,262 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1023</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (8.33%)   </t>
+          <t>158416 (103720)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (12.8%)   </t>
+          <t>194411 (106729)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (28.1%)   </t>
+          <t>164921 (154435)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (50.0%)   </t>
+          <t>217767 (205467)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (50.0%)   </t>
+          <t>204215 (86217)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t>165673 (126013)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t>162375 (90426)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.154  </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    364#469</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  44 (11.8%)   </t>
+          <t>158947 (104087)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (9.30%)   </t>
+          <t>194836 (106825)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (22.8%)   </t>
+          <t>165764 (154492)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (25.0%)   </t>
+          <t>218138 (205598)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (50.0%)   </t>
+          <t>204425 (86225)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t>166053 (126105)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (15.0%)   </t>
+          <t>163005 (90604)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.160  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (4.30%)   </t>
+          <t xml:space="preserve">  1.90 (1.35)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (4.65%)   </t>
+          <t xml:space="preserve">  2.14 (1.78)  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">  1.44 (1.07)  </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">  1.66 (1.04)  </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve"> 0.98 (1.13)  </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">  2.01 (1.01)  </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (20.0%)   </t>
+          <t xml:space="preserve"> 2.04 (1.27)  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.089  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9 (2.42%)   </t>
+          <t xml:space="preserve">  2.21 (1.29)  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3 (3.49%)   </t>
+          <t xml:space="preserve">  3.05 (2.17)  </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (1.75%)   </t>
+          <t xml:space="preserve">  1.48 (1.34)  </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">  0.98 (0.41)  </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve"> 1.02 (0.50)  </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">  2.03 (1.25)  </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t xml:space="preserve"> 3.16 (2.30)  </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  77 (20.7%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (17.4%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (3.51%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    409</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  46 (12.4%)   </t>
+          <t xml:space="preserve">  33 (8.87%)   </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (12.8%)   </t>
+          <t xml:space="preserve">   9 (10.5%)   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">  13 (22.8%)   </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3 (20.0%)   </t>
+          <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (20.0%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2182,42 +2182,42 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    457</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  87 (23.4%)   </t>
+          <t xml:space="preserve">  31 (8.33%)   </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (15.1%)   </t>
+          <t xml:space="preserve">  11 (12.8%)   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (14.0%)   </t>
+          <t xml:space="preserve">  16 (28.1%)   </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t xml:space="preserve">   4 (50.0%)   </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2 (50.0%)   </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2 (13.3%)   </t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (5.00%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2229,45 +2229,327 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t xml:space="preserve">    364#469</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  44 (11.8%)   </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   8 (9.30%)   </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  13 (22.8%)   </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   2 (25.0%)   </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2 (50.0%)   </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   4 (26.7%)   </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  3 (15.0%)   </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    386</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  16 (4.30%)   </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   4 (4.65%)   </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4 (20.0%)   </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    387</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   9 (2.42%)   </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   3 (3.49%)   </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1 (1.75%)   </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2 (10.0%)   </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    388</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  77 (20.7%)   </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  15 (17.4%)   </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   2 (3.51%)   </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   4 (26.7%)   </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    409</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  46 (12.4%)   </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  11 (12.8%)   </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   3 (20.0%)   </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4 (20.0%)   </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    457</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  87 (23.4%)   </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  13 (15.1%)   </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   8 (14.0%)   </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   2 (13.3%)   </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (5.00%)   </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t xml:space="preserve">    461</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">  29 (7.80%)   </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">  12 (14.0%)   </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">   4 (7.02%)   </t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>

--- a/docs/Descriptives.xlsx
+++ b/docs/Descriptives.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1712,22 +1712,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pseudotime</t>
+          <t>Pseudotime_1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9.46 (1.99)  </t>
+          <t xml:space="preserve">  3.76 (2.36)  </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7.09 (0.78)  </t>
+          <t xml:space="preserve">  8.25 (1.08)  </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.14 (0.28)  </t>
+          <t xml:space="preserve">  11.2 (0.97)  </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1742,12 +1742,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13.1 (0.29)  </t>
+          <t xml:space="preserve">  0.40 (0.29)  </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.42 (0.96)  </t>
+          <t xml:space="preserve"> 14.8 (0.99)  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1759,487 +1759,487 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>Pseudotime_2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  3.50 (1.53)  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  8.35 (1.12)  </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  9.64 (0.22)  </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  13.1 (0.48)  </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  0.52 (0.29)  </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">    . (.)     </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t>Pseudotime_3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  272 (73.1%)  </t>
+          <t xml:space="preserve">  4.09 (1.87)  </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (65.1%)   </t>
+          <t xml:space="preserve">     . (.)     </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  52 (91.2%)   </t>
+          <t xml:space="preserve">  8.51 (0.23)  </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (100%)    </t>
+          <t xml:space="preserve">     . (.)     </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (100%)   </t>
+          <t xml:space="preserve"> 22.1 (0.04)  </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (73.3%)   </t>
+          <t xml:space="preserve">  0.40 (0.30)  </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (40.0%)   </t>
+          <t xml:space="preserve"> 9.99 (0.17)  </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  100 (26.9%)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  30 (34.9%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5 (8.77%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (60.0%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>158416 (103720)</t>
+          <t xml:space="preserve">  272 (73.1%)  </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>194411 (106729)</t>
+          <t xml:space="preserve">  56 (65.1%)   </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>164921 (154435)</t>
+          <t xml:space="preserve">  52 (91.2%)   </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>217767 (205467)</t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>204215 (86217)</t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>165673 (126013)</t>
+          <t xml:space="preserve">  11 (73.3%)   </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>162375 (90426)</t>
+          <t xml:space="preserve">  8 (40.0%)   </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.154  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>158947 (104087)</t>
+          <t xml:space="preserve">  100 (26.9%)  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>194836 (106825)</t>
+          <t xml:space="preserve">  30 (34.9%)   </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>165764 (154492)</t>
+          <t xml:space="preserve">   5 (8.77%)   </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>218138 (205598)</t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>204425 (86225)</t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>166053 (126105)</t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>163005 (90604)</t>
+          <t xml:space="preserve">  12 (60.0%)  </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.160  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>percent.mt</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.90 (1.35)  </t>
+          <t>158416 (103720)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.14 (1.78)  </t>
+          <t>194411 (106729)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.44 (1.07)  </t>
+          <t>164921 (154435)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.66 (1.04)  </t>
+          <t>217767 (205467)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.98 (1.13)  </t>
+          <t>204215 (86217)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.01 (1.01)  </t>
+          <t>165673 (126013)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.04 (1.27)  </t>
+          <t>162375 (90426)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.089  </t>
+          <t xml:space="preserve">  0.154  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>percent.rp</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.21 (1.29)  </t>
+          <t>158947 (104087)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.05 (2.17)  </t>
+          <t>194836 (106825)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.48 (1.34)  </t>
+          <t>165764 (154492)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.98 (0.41)  </t>
+          <t>218138 (205598)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.02 (0.50)  </t>
+          <t>204425 (86225)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.03 (1.25)  </t>
+          <t>166053 (126105)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.16 (2.30)  </t>
+          <t>163005 (90604)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.160  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  1.90 (1.35)  </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  2.14 (1.78)  </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  1.44 (1.07)  </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  1.66 (1.04)  </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 0.98 (1.13)  </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  2.01 (1.01)  </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.04 (1.27)  </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">  0.089  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1022</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  33 (8.87%)   </t>
+          <t xml:space="preserve">  2.21 (1.29)  </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9 (10.5%)   </t>
+          <t xml:space="preserve">  3.05 (2.17)  </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (22.8%)   </t>
+          <t xml:space="preserve">  1.48 (1.34)  </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (25.0%)   </t>
+          <t xml:space="preserve">  0.98 (0.41)  </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve"> 1.02 (0.50)  </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (6.67%)   </t>
+          <t xml:space="preserve">  2.03 (1.25)  </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t xml:space="preserve"> 3.16 (2.30)  </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1023</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (8.33%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (12.8%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (28.1%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (50.0%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (50.0%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    364#469</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  44 (11.8%)   </t>
+          <t xml:space="preserve">  33 (8.87%)   </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (9.30%)   </t>
+          <t xml:space="preserve">   9 (10.5%)   </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2254,17 +2254,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (50.0%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (15.0%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2276,42 +2276,42 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (4.30%)   </t>
+          <t xml:space="preserve">  31 (8.33%)   </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (4.65%)   </t>
+          <t xml:space="preserve">  11 (12.8%)   </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t xml:space="preserve">  16 (28.1%)   </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   4 (50.0%)   </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2 (50.0%)   </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (20.0%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2323,42 +2323,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t xml:space="preserve">    364#469</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9 (2.42%)   </t>
+          <t xml:space="preserve">  44 (11.8%)   </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3 (3.49%)   </t>
+          <t xml:space="preserve">   8 (9.30%)   </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (1.75%)   </t>
+          <t xml:space="preserve">  13 (22.8%)   </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t xml:space="preserve">  3 (15.0%)   </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2370,22 +2370,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t xml:space="preserve">    386</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  77 (20.7%)   </t>
+          <t xml:space="preserve">  16 (4.30%)   </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (17.4%)   </t>
+          <t xml:space="preserve">   4 (4.65%)   </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (3.51%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  4 (20.0%)   </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2417,42 +2417,42 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    409</t>
+          <t xml:space="preserve">    387</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  46 (12.4%)   </t>
+          <t xml:space="preserve">   9 (2.42%)   </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (12.8%)   </t>
+          <t xml:space="preserve">   3 (3.49%)   </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t xml:space="preserve">   1 (1.75%)   </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3 (20.0%)   </t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4 (20.0%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2464,22 +2464,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    457</t>
+          <t xml:space="preserve">    388</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  87 (23.4%)   </t>
+          <t xml:space="preserve">  77 (20.7%)   </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (15.1%)   </t>
+          <t xml:space="preserve">  15 (17.4%)   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (14.0%)   </t>
+          <t xml:space="preserve">   2 (3.51%)   </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2494,12 +2494,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (13.3%)   </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1 (5.00%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2511,45 +2511,139 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t xml:space="preserve">    409</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  46 (12.4%)   </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  11 (12.8%)   </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   3 (20.0%)   </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  4 (20.0%)   </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    457</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  87 (23.4%)   </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  13 (15.1%)   </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   8 (14.0%)   </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  0 (0.00%)   </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   2 (13.3%)   </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1 (5.00%)   </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t xml:space="preserve">    461</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">  29 (7.80%)   </t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">  12 (14.0%)   </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">   4 (7.02%)   </t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>

--- a/docs/Descriptives.xlsx
+++ b/docs/Descriptives.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1712,544 +1712,544 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pseudotime_1</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.76 (2.36)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8.25 (1.08)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11.2 (0.97)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">     . (.)     </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">    . (.)     </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.40 (0.29)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14.8 (0.99)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pseudotime_2</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.50 (1.53)  </t>
+          <t xml:space="preserve">  272 (73.1%)  </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8.35 (1.12)  </t>
+          <t xml:space="preserve">  56 (65.1%)   </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9.64 (0.22)  </t>
+          <t xml:space="preserve">  52 (91.2%)   </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13.1 (0.48)  </t>
+          <t xml:space="preserve">   8 (100%)    </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    . (.)     </t>
+          <t xml:space="preserve">   4 (100%)   </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.52 (0.29)  </t>
+          <t xml:space="preserve">  11 (73.3%)   </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    . (.)     </t>
+          <t xml:space="preserve">  8 (40.0%)   </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pseudotime_3</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.09 (1.87)  </t>
+          <t xml:space="preserve">  100 (26.9%)  </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">     . (.)     </t>
+          <t xml:space="preserve">  30 (34.9%)   </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8.51 (0.23)  </t>
+          <t xml:space="preserve">   5 (8.77%)   </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">     . (.)     </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22.1 (0.04)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.40 (0.30)  </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.99 (0.17)  </t>
+          <t xml:space="preserve">  12 (60.0%)  </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>158416 (103720)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>194411 (106729)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>164921 (154435)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>217767 (205467)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t>204215 (86217)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>165673 (126013)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t>162375 (90426)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">  0.154  </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  272 (73.1%)  </t>
+          <t>158947 (104087)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56 (65.1%)   </t>
+          <t>194836 (106825)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  52 (91.2%)   </t>
+          <t>165764 (154492)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (100%)    </t>
+          <t>218138 (205598)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (100%)   </t>
+          <t>204425 (86225)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (73.3%)   </t>
+          <t>166053 (126105)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8 (40.0%)   </t>
+          <t>163005 (90604)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.160  </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  100 (26.9%)  </t>
+          <t xml:space="preserve">  1.90 (1.35)  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  30 (34.9%)   </t>
+          <t xml:space="preserve">  2.14 (1.78)  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5 (8.77%)   </t>
+          <t xml:space="preserve">  1.44 (1.07)  </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">  1.66 (1.04)  </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve"> 0.98 (1.13)  </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t xml:space="preserve">  2.01 (1.01)  </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (60.0%)  </t>
+          <t xml:space="preserve"> 2.04 (1.27)  </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.089  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>158416 (103720)</t>
+          <t xml:space="preserve">  2.21 (1.29)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>194411 (106729)</t>
+          <t xml:space="preserve">  3.05 (2.17)  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>164921 (154435)</t>
+          <t xml:space="preserve">  1.48 (1.34)  </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>217767 (205467)</t>
+          <t xml:space="preserve">  0.98 (0.41)  </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>204215 (86217)</t>
+          <t xml:space="preserve"> 1.02 (0.50)  </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>165673 (126013)</t>
+          <t xml:space="preserve">  2.03 (1.25)  </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>162375 (90426)</t>
+          <t xml:space="preserve"> 3.16 (2.30)  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.154  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>158947 (104087)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>194836 (106825)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>165764 (154492)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>218138 (205598)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>204425 (86225)</t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>166053 (126105)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>163005 (90604)</t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.160  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>percent.mt</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.90 (1.35)  </t>
+          <t xml:space="preserve">  33 (8.87%)   </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.14 (1.78)  </t>
+          <t xml:space="preserve">   9 (10.5%)   </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.44 (1.07)  </t>
+          <t xml:space="preserve">  13 (22.8%)   </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.66 (1.04)  </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.98 (1.13)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.01 (1.01)  </t>
+          <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.04 (1.27)  </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.089  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>percent.rp</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.21 (1.29)  </t>
+          <t xml:space="preserve">  31 (8.33%)   </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3.05 (2.17)  </t>
+          <t xml:space="preserve">  11 (12.8%)   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.48 (1.34)  </t>
+          <t xml:space="preserve">  16 (28.1%)   </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.98 (0.41)  </t>
+          <t xml:space="preserve">   4 (50.0%)   </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.02 (0.50)  </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2.03 (1.25)  </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.16 (2.30)  </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t xml:space="preserve">    364#469</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  44 (11.8%)   </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   8 (9.30%)   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  13 (22.8%)   </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   2 (25.0%)   </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  2 (50.0%)   </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">   4 (26.7%)   </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  3 (15.0%)   </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1022</t>
+          <t xml:space="preserve">    386</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  33 (8.87%)   </t>
+          <t xml:space="preserve">  16 (4.30%)   </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9 (10.5%)   </t>
+          <t xml:space="preserve">   4 (4.65%)   </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (22.8%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (25.0%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (6.67%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t xml:space="preserve">  4 (20.0%)   </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2276,32 +2276,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1023</t>
+          <t xml:space="preserve">    387</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  31 (8.33%)   </t>
+          <t xml:space="preserve">   9 (2.42%)   </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11 (12.8%)   </t>
+          <t xml:space="preserve">   3 (3.49%)   </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (28.1%)   </t>
+          <t xml:space="preserve">   1 (1.75%)   </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (50.0%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (50.0%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2323,32 +2323,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    364#469</t>
+          <t xml:space="preserve">    388</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  44 (11.8%)   </t>
+          <t xml:space="preserve">  77 (20.7%)   </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (9.30%)   </t>
+          <t xml:space="preserve">  15 (17.4%)   </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13 (22.8%)   </t>
+          <t xml:space="preserve">   2 (3.51%)   </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (25.0%)   </t>
+          <t xml:space="preserve">   0 (0.00%)   </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (50.0%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3 (15.0%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2370,17 +2370,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    409</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16 (4.30%)   </t>
+          <t xml:space="preserve">  46 (12.4%)   </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (4.65%)   </t>
+          <t xml:space="preserve">  11 (12.8%)   </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">   3 (20.0%)   </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2417,22 +2417,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t xml:space="preserve">    457</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9 (2.42%)   </t>
+          <t xml:space="preserve">  87 (23.4%)   </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3 (3.49%)   </t>
+          <t xml:space="preserve">  13 (15.1%)   </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1 (1.75%)   </t>
+          <t xml:space="preserve">   8 (14.0%)   </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
+          <t xml:space="preserve">   2 (13.3%)   </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
+          <t xml:space="preserve">  1 (5.00%)   </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2464,22 +2464,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t xml:space="preserve">    461</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  77 (20.7%)   </t>
+          <t xml:space="preserve">  29 (7.80%)   </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15 (17.4%)   </t>
+          <t xml:space="preserve">  12 (14.0%)   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">   2 (3.51%)   </t>
+          <t xml:space="preserve">   4 (7.02%)   </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2494,156 +2494,15 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4 (26.7%)   </t>
+          <t xml:space="preserve">   1 (6.67%)   </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  2 (10.0%)   </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    409</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  46 (12.4%)   </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  11 (12.8%)   </t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3 (20.0%)   </t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4 (20.0%)   </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    457</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  87 (23.4%)   </t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  13 (15.1%)   </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   8 (14.0%)   </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2 (13.3%)   </t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1 (5.00%)   </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    461</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  29 (7.80%)   </t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  12 (14.0%)   </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   4 (7.02%)   </t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1 (6.67%)   </t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  2 (10.0%)   </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
